--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.60633686740289</v>
+        <v>2.408091666666667</v>
       </c>
       <c r="H2">
-        <v>1.60633686740289</v>
+        <v>7.224275</v>
       </c>
       <c r="I2">
-        <v>0.002311100362673711</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="J2">
-        <v>0.002311100362673711</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="N2">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="O2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q2">
-        <v>3.485594131758106</v>
+        <v>7.361798706991668</v>
       </c>
       <c r="R2">
-        <v>3.485594131758106</v>
+        <v>66.256188362925</v>
       </c>
       <c r="S2">
-        <v>4.534506432352643E-05</v>
+        <v>9.226877885876117E-05</v>
       </c>
       <c r="T2">
-        <v>4.534506432352643E-05</v>
+        <v>9.226877885876115E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.60633686740289</v>
+        <v>2.408091666666667</v>
       </c>
       <c r="H3">
-        <v>1.60633686740289</v>
+        <v>7.224275</v>
       </c>
       <c r="I3">
-        <v>0.002311100362673711</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="J3">
-        <v>0.002311100362673711</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N3">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q3">
-        <v>142.5866466440625</v>
+        <v>214.3865253396667</v>
       </c>
       <c r="R3">
-        <v>142.5866466440625</v>
+        <v>1929.478728057</v>
       </c>
       <c r="S3">
-        <v>0.00185494937716393</v>
+        <v>0.002687004044008601</v>
       </c>
       <c r="T3">
-        <v>0.00185494937716393</v>
+        <v>0.002687004044008601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.60633686740289</v>
+        <v>2.408091666666667</v>
       </c>
       <c r="H4">
-        <v>1.60633686740289</v>
+        <v>7.224275</v>
       </c>
       <c r="I4">
-        <v>0.002311100362673711</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="J4">
-        <v>0.002311100362673711</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="N4">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q4">
-        <v>31.57791767505282</v>
+        <v>0.443100907125</v>
       </c>
       <c r="R4">
-        <v>31.57791767505282</v>
+        <v>3.987908164125</v>
       </c>
       <c r="S4">
-        <v>0.0004108059211862548</v>
+        <v>5.553585643791683E-06</v>
       </c>
       <c r="T4">
-        <v>0.0004108059211862548</v>
+        <v>5.553585643791681E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>687.015815466794</v>
+        <v>2.408091666666667</v>
       </c>
       <c r="H5">
-        <v>687.015815466794</v>
+        <v>7.224275</v>
       </c>
       <c r="I5">
-        <v>0.9884368170264077</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="J5">
-        <v>0.9884368170264077</v>
+        <v>0.003423762576085583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.16990234270946</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N5">
-        <v>2.16990234270946</v>
+        <v>63.508942</v>
       </c>
       <c r="O5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q5">
-        <v>1490.757227459846</v>
+        <v>50.97845132967223</v>
       </c>
       <c r="R5">
-        <v>1490.757227459846</v>
+        <v>458.80606196705</v>
       </c>
       <c r="S5">
-        <v>0.01939367574498197</v>
+        <v>0.0006389361675744295</v>
       </c>
       <c r="T5">
-        <v>0.01939367574498197</v>
+        <v>0.0006389361675744293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>687.015815466794</v>
+        <v>693.5675046666665</v>
       </c>
       <c r="H6">
-        <v>687.015815466794</v>
+        <v>2080.702514</v>
       </c>
       <c r="I6">
-        <v>0.9884368170264077</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="J6">
-        <v>0.9884368170264077</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.76509624945309</v>
+        <v>3.057109</v>
       </c>
       <c r="N6">
-        <v>88.76509624945309</v>
+        <v>9.171327</v>
       </c>
       <c r="O6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q6">
-        <v>60983.02498480648</v>
+        <v>2120.311460624008</v>
       </c>
       <c r="R6">
-        <v>60983.02498480648</v>
+        <v>19082.80314561608</v>
       </c>
       <c r="S6">
-        <v>0.7933451474984222</v>
+        <v>0.02657483001894783</v>
       </c>
       <c r="T6">
-        <v>0.7933451474984222</v>
+        <v>0.02657483001894783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>687.015815466794</v>
+        <v>693.5675046666665</v>
       </c>
       <c r="H7">
-        <v>687.015815466794</v>
+        <v>2080.702514</v>
       </c>
       <c r="I7">
-        <v>0.9884368170264077</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="J7">
-        <v>0.9884368170264077</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6583408597897</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N7">
-        <v>19.6583408597897</v>
+        <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q7">
-        <v>13505.59107651262</v>
+        <v>61746.62263576193</v>
       </c>
       <c r="R7">
-        <v>13505.59107651262</v>
+        <v>555719.6037218574</v>
       </c>
       <c r="S7">
-        <v>0.1756979937830035</v>
+        <v>0.7738985669145847</v>
       </c>
       <c r="T7">
-        <v>0.1756979937830035</v>
+        <v>0.7738985669145847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.87600757260371</v>
+        <v>693.5675046666665</v>
       </c>
       <c r="H8">
-        <v>1.87600757260371</v>
+        <v>2080.702514</v>
       </c>
       <c r="I8">
-        <v>0.002699086268519061</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="J8">
-        <v>0.002699086268519061</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.16990234270946</v>
+        <v>0.184005</v>
       </c>
       <c r="N8">
-        <v>2.16990234270946</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q8">
-        <v>4.070753226733477</v>
+        <v>127.61988869619</v>
       </c>
       <c r="R8">
-        <v>4.070753226733477</v>
+        <v>1148.57899826571</v>
       </c>
       <c r="S8">
-        <v>5.295756187721355E-05</v>
+        <v>0.001599518236882131</v>
       </c>
       <c r="T8">
-        <v>5.295756187721355E-05</v>
+        <v>0.001599518236882131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.87600757260371</v>
+        <v>693.5675046666665</v>
       </c>
       <c r="H9">
-        <v>1.87600757260371</v>
+        <v>2080.702514</v>
       </c>
       <c r="I9">
-        <v>0.002699086268519061</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="J9">
-        <v>0.002699086268519061</v>
+        <v>0.9860963763700007</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.76509624945309</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N9">
-        <v>88.76509624945309</v>
+        <v>63.508942</v>
       </c>
       <c r="O9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q9">
-        <v>166.5239927468712</v>
+        <v>14682.57947565335</v>
       </c>
       <c r="R9">
-        <v>166.5239927468712</v>
+        <v>132143.2152808802</v>
       </c>
       <c r="S9">
-        <v>0.002166356975907759</v>
+        <v>0.1840234611995861</v>
       </c>
       <c r="T9">
-        <v>0.002166356975907759</v>
+        <v>0.1840234611995861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.87600757260371</v>
+        <v>1.968565666666667</v>
       </c>
       <c r="H10">
-        <v>1.87600757260371</v>
+        <v>5.905697</v>
       </c>
       <c r="I10">
-        <v>0.002699086268519061</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="J10">
-        <v>0.002699086268519061</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.6583408597897</v>
+        <v>3.057109</v>
       </c>
       <c r="N10">
-        <v>19.6583408597897</v>
+        <v>9.171327</v>
       </c>
       <c r="O10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q10">
-        <v>36.8791963177904</v>
+        <v>6.018119816657666</v>
       </c>
       <c r="R10">
-        <v>36.8791963177904</v>
+        <v>54.163078349919</v>
       </c>
       <c r="S10">
-        <v>0.0004797717307340874</v>
+        <v>7.542783884886015E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004797717307340874</v>
+        <v>7.542783884886015E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.55467870922523</v>
+        <v>1.968565666666667</v>
       </c>
       <c r="H11">
-        <v>4.55467870922523</v>
+        <v>5.905697</v>
       </c>
       <c r="I11">
-        <v>0.006552996342399533</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="J11">
-        <v>0.006552996342399533</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.16990234270946</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N11">
-        <v>2.16990234270946</v>
+        <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q11">
-        <v>9.883208001436724</v>
+        <v>175.2565980031067</v>
       </c>
       <c r="R11">
-        <v>9.883208001436724</v>
+        <v>1577.30938202796</v>
       </c>
       <c r="S11">
-        <v>0.0001285734040187558</v>
+        <v>0.002196570828448454</v>
       </c>
       <c r="T11">
-        <v>0.0001285734040187558</v>
+        <v>0.002196570828448454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.55467870922523</v>
+        <v>1.968565666666667</v>
       </c>
       <c r="H12">
-        <v>4.55467870922523</v>
+        <v>5.905697</v>
       </c>
       <c r="I12">
-        <v>0.006552996342399533</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="J12">
-        <v>0.006552996342399533</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>88.76509624945309</v>
+        <v>0.184005</v>
       </c>
       <c r="N12">
-        <v>88.76509624945309</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q12">
-        <v>404.2964940097123</v>
+        <v>0.3622259254949999</v>
       </c>
       <c r="R12">
-        <v>404.2964940097123</v>
+        <v>3.260033329455</v>
       </c>
       <c r="S12">
-        <v>0.005259605632110609</v>
+        <v>4.539942634490465E-06</v>
       </c>
       <c r="T12">
-        <v>0.005259605632110609</v>
+        <v>4.539942634490464E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.55467870922523</v>
+        <v>1.968565666666667</v>
       </c>
       <c r="H13">
-        <v>4.55467870922523</v>
+        <v>5.905697</v>
       </c>
       <c r="I13">
-        <v>0.006552996342399533</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="J13">
-        <v>0.006552996342399533</v>
+        <v>0.002798855853950866</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6583408597897</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N13">
-        <v>19.6583408597897</v>
+        <v>63.508942</v>
       </c>
       <c r="O13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q13">
-        <v>89.53742657277654</v>
+        <v>41.67384091584156</v>
       </c>
       <c r="R13">
-        <v>89.53742657277654</v>
+        <v>375.064568242574</v>
       </c>
       <c r="S13">
-        <v>0.001164817306270167</v>
+        <v>0.0005223172440190614</v>
       </c>
       <c r="T13">
-        <v>0.001164817306270167</v>
+        <v>0.0005223172440190613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.402408666666666</v>
+      </c>
+      <c r="H14">
+        <v>16.207226</v>
+      </c>
+      <c r="I14">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="J14">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.057109</v>
+      </c>
+      <c r="N14">
+        <v>9.171327</v>
+      </c>
+      <c r="O14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q14">
+        <v>16.51575215654466</v>
+      </c>
+      <c r="R14">
+        <v>148.641769408902</v>
+      </c>
+      <c r="S14">
+        <v>0.0002069994500081965</v>
+      </c>
+      <c r="T14">
+        <v>0.0002069994500081965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.402408666666666</v>
+      </c>
+      <c r="H15">
+        <v>16.207226</v>
+      </c>
+      <c r="I15">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="J15">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N15">
+        <v>267.08268</v>
+      </c>
+      <c r="O15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q15">
+        <v>480.9632617161866</v>
+      </c>
+      <c r="R15">
+        <v>4328.66935544568</v>
+      </c>
+      <c r="S15">
+        <v>0.006028131792347513</v>
+      </c>
+      <c r="T15">
+        <v>0.006028131792347513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.402408666666666</v>
+      </c>
+      <c r="H16">
+        <v>16.207226</v>
+      </c>
+      <c r="I16">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="J16">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.184005</v>
+      </c>
+      <c r="N16">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q16">
+        <v>0.9940702067099998</v>
+      </c>
+      <c r="R16">
+        <v>8.946631860389997</v>
+      </c>
+      <c r="S16">
+        <v>1.24591350189863E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.24591350189863E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.402408666666666</v>
+      </c>
+      <c r="H17">
+        <v>16.207226</v>
+      </c>
+      <c r="I17">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="J17">
+        <v>0.007681005199962796</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N17">
+        <v>63.508942</v>
+      </c>
+      <c r="O17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q17">
+        <v>114.3670862238769</v>
+      </c>
+      <c r="R17">
+        <v>1029.303776014892</v>
+      </c>
+      <c r="S17">
+        <v>0.0014334148225881</v>
+      </c>
+      <c r="T17">
+        <v>0.0014334148225881</v>
       </c>
     </row>
   </sheetData>
